--- a/StructureDefinition-ext-R5-SubstanceSourceMaterial.xlsx
+++ b/StructureDefinition-ext-R5-SubstanceSourceMaterial.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ext-R5-SubstanceSourceMaterial.xlsx
+++ b/StructureDefinition-ext-R5-SubstanceSourceMaterial.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6137" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6137" uniqueCount="488">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -385,6 +385,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.sourceMaterialClass</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -432,6 +435,9 @@
     <t>Extension.extension:sourceMaterialType.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.sourceMaterialType</t>
+  </si>
+  <si>
     <t>Extension.extension:sourceMaterialType.value[x]</t>
   </si>
   <si>
@@ -459,6 +465,9 @@
     <t>Extension.extension:sourceMaterialState.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.sourceMaterialState</t>
+  </si>
+  <si>
     <t>Extension.extension:sourceMaterialState.value[x]</t>
   </si>
   <si>
@@ -484,6 +493,9 @@
   </si>
   <si>
     <t>Extension.extension:organismId.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organismId</t>
   </si>
   <si>
     <t>Extension.extension:organismId.value[x]</t>
@@ -517,6 +529,9 @@
     <t>Extension.extension:organismName.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organismName</t>
+  </si>
+  <si>
     <t>Extension.extension:organismName.value[x]</t>
   </si>
   <si>
@@ -544,6 +559,9 @@
     <t>Extension.extension:parentSubstanceId.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.parentSubstanceId</t>
+  </si>
+  <si>
     <t>Extension.extension:parentSubstanceId.value[x]</t>
   </si>
   <si>
@@ -571,6 +589,9 @@
     <t>Extension.extension:parentSubstanceName.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.parentSubstanceName</t>
+  </si>
+  <si>
     <t>Extension.extension:parentSubstanceName.value[x]</t>
   </si>
   <si>
@@ -598,6 +619,9 @@
     <t>Extension.extension:countryOfOrigin.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.countryOfOrigin</t>
+  </si>
+  <si>
     <t>Extension.extension:countryOfOrigin.value[x]</t>
   </si>
   <si>
@@ -625,6 +649,9 @@
     <t>Extension.extension:geographicalLocation.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.geographicalLocation</t>
+  </si>
+  <si>
     <t>Extension.extension:geographicalLocation.value[x]</t>
   </si>
   <si>
@@ -652,6 +679,9 @@
     <t>Extension.extension:developmentStage.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.developmentStage</t>
+  </si>
+  <si>
     <t>Extension.extension:developmentStage.value[x]</t>
   </si>
   <si>
@@ -709,6 +739,9 @@
     <t>Extension.extension.extension.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.fractionDescription.fraction</t>
+  </si>
+  <si>
     <t>Extension.extension:fractionDescription.extension:fraction.value[x]</t>
   </si>
   <si>
@@ -737,6 +770,9 @@
   </si>
   <si>
     <t>Extension.extension:fractionDescription.extension:materialType.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.fractionDescription.materialType</t>
   </si>
   <si>
     <t>Extension.extension:fractionDescription.extension:materialType.value[x]</t>
@@ -806,6 +842,9 @@
     <t>Extension.extension:organism.extension:family.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism.family</t>
+  </si>
+  <si>
     <t>Extension.extension:organism.extension:family.value[x]</t>
   </si>
   <si>
@@ -833,6 +872,9 @@
     <t>Extension.extension:organism.extension:genus.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism.genus</t>
+  </si>
+  <si>
     <t>Extension.extension:organism.extension:genus.value[x]</t>
   </si>
   <si>
@@ -860,6 +902,9 @@
     <t>Extension.extension:organism.extension:species.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism.species</t>
+  </si>
+  <si>
     <t>Extension.extension:organism.extension:species.value[x]</t>
   </si>
   <si>
@@ -887,6 +932,9 @@
     <t>Extension.extension:organism.extension:intraspecificType.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism.intraspecificType</t>
+  </si>
+  <si>
     <t>Extension.extension:organism.extension:intraspecificType.value[x]</t>
   </si>
   <si>
@@ -914,6 +962,9 @@
     <t>Extension.extension:organism.extension:intraspecificDescription.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism.intraspecificDescription</t>
+  </si>
+  <si>
     <t>Extension.extension:organism.extension:intraspecificDescription.value[x]</t>
   </si>
   <si>
@@ -971,6 +1022,9 @@
     <t>Extension.extension.extension.extension.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism.author.authorType</t>
+  </si>
+  <si>
     <t>Extension.extension:organism.extension:author.extension:authorType.value[x]</t>
   </si>
   <si>
@@ -1001,6 +1055,9 @@
     <t>Extension.extension:organism.extension:author.extension:authorDescription.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism.author.authorDescription</t>
+  </si>
+  <si>
     <t>Extension.extension:organism.extension:author.extension:authorDescription.value[x]</t>
   </si>
   <si>
@@ -1058,6 +1115,9 @@
     <t>Extension.extension:organism.extension:hybrid.extension:maternalOrganismId.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism.hybrid.maternalOrganismId</t>
+  </si>
+  <si>
     <t>Extension.extension:organism.extension:hybrid.extension:maternalOrganismId.value[x]</t>
   </si>
   <si>
@@ -1085,6 +1145,9 @@
     <t>Extension.extension:organism.extension:hybrid.extension:maternalOrganismName.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism.hybrid.maternalOrganismName</t>
+  </si>
+  <si>
     <t>Extension.extension:organism.extension:hybrid.extension:maternalOrganismName.value[x]</t>
   </si>
   <si>
@@ -1112,6 +1175,9 @@
     <t>Extension.extension:organism.extension:hybrid.extension:paternalOrganismId.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism.hybrid.paternalOrganismId</t>
+  </si>
+  <si>
     <t>Extension.extension:organism.extension:hybrid.extension:paternalOrganismId.value[x]</t>
   </si>
   <si>
@@ -1139,6 +1205,9 @@
     <t>Extension.extension:organism.extension:hybrid.extension:paternalOrganismName.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism.hybrid.paternalOrganismName</t>
+  </si>
+  <si>
     <t>Extension.extension:organism.extension:hybrid.extension:paternalOrganismName.value[x]</t>
   </si>
   <si>
@@ -1166,6 +1235,9 @@
     <t>Extension.extension:organism.extension:hybrid.extension:hybridType.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism.hybrid.hybridType</t>
+  </si>
+  <si>
     <t>Extension.extension:organism.extension:hybrid.extension:hybridType.value[x]</t>
   </si>
   <si>
@@ -1223,6 +1295,9 @@
     <t>Extension.extension:organism.extension:organismGeneral.extension:kingdom.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism.organismGeneral.kingdom</t>
+  </si>
+  <si>
     <t>Extension.extension:organism.extension:organismGeneral.extension:kingdom.value[x]</t>
   </si>
   <si>
@@ -1250,6 +1325,9 @@
     <t>Extension.extension:organism.extension:organismGeneral.extension:phylum.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism.organismGeneral.phylum</t>
+  </si>
+  <si>
     <t>Extension.extension:organism.extension:organismGeneral.extension:phylum.value[x]</t>
   </si>
   <si>
@@ -1277,6 +1355,9 @@
     <t>Extension.extension:organism.extension:organismGeneral.extension:class.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism.organismGeneral.class</t>
+  </si>
+  <si>
     <t>Extension.extension:organism.extension:organismGeneral.extension:class.value[x]</t>
   </si>
   <si>
@@ -1304,6 +1385,9 @@
     <t>Extension.extension:organism.extension:organismGeneral.extension:order.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism.organismGeneral.order</t>
+  </si>
+  <si>
     <t>Extension.extension:organism.extension:organismGeneral.extension:order.value[x]</t>
   </si>
   <si>
@@ -1370,6 +1454,9 @@
     <t>Extension.extension:partDescription.extension:part.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.partDescription.part</t>
+  </si>
+  <si>
     <t>Extension.extension:partDescription.extension:part.value[x]</t>
   </si>
   <si>
@@ -1395,6 +1482,9 @@
   </si>
   <si>
     <t>Extension.extension:partDescription.extension:partLocation.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.partDescription.partLocation</t>
   </si>
   <si>
     <t>Extension.extension:partDescription.extension:partLocation.value[x]</t>
@@ -2552,7 +2642,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -2594,7 +2684,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>86</v>
@@ -2609,15 +2699,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2640,7 +2730,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>101</v>
@@ -2697,7 +2787,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -2709,21 +2799,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -2748,14 +2838,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2824,7 +2914,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -2927,7 +3017,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -3032,7 +3122,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -3075,7 +3165,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -3117,7 +3207,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>86</v>
@@ -3132,15 +3222,15 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3163,13 +3253,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3220,7 +3310,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -3232,21 +3322,21 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -3271,14 +3361,14 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -3347,7 +3437,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -3450,7 +3540,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -3555,7 +3645,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>113</v>
@@ -3598,7 +3688,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -3640,7 +3730,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>86</v>
@@ -3655,15 +3745,15 @@
         <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3686,13 +3776,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3743,7 +3833,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3755,21 +3845,21 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3794,14 +3884,14 @@
         <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3870,7 +3960,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>105</v>
@@ -3973,7 +4063,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>107</v>
@@ -4078,7 +4168,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>113</v>
@@ -4121,7 +4211,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -4163,7 +4253,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>86</v>
@@ -4178,15 +4268,15 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4209,13 +4299,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4266,7 +4356,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4278,21 +4368,21 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -4317,14 +4407,14 @@
         <v>93</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4393,7 +4483,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>105</v>
@@ -4496,7 +4586,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>107</v>
@@ -4601,7 +4691,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>113</v>
@@ -4644,7 +4734,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -4686,7 +4776,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>86</v>
@@ -4701,15 +4791,15 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4735,10 +4825,10 @@
         <v>87</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4789,7 +4879,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4801,21 +4891,21 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4840,14 +4930,14 @@
         <v>93</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4916,7 +5006,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>105</v>
@@ -5019,7 +5109,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>107</v>
@@ -5124,7 +5214,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>113</v>
@@ -5167,7 +5257,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -5209,7 +5299,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>86</v>
@@ -5224,15 +5314,15 @@
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5255,13 +5345,13 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5312,7 +5402,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5324,21 +5414,21 @@
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -5363,14 +5453,14 @@
         <v>93</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5439,7 +5529,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>105</v>
@@ -5542,7 +5632,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>107</v>
@@ -5647,7 +5737,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>113</v>
@@ -5690,7 +5780,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -5732,7 +5822,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>86</v>
@@ -5747,15 +5837,15 @@
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5781,10 +5871,10 @@
         <v>87</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5835,7 +5925,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -5847,21 +5937,21 @@
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -5886,14 +5976,14 @@
         <v>93</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -5962,7 +6052,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>105</v>
@@ -6065,7 +6155,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>107</v>
@@ -6170,7 +6260,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>113</v>
@@ -6213,7 +6303,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>77</v>
@@ -6255,7 +6345,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>86</v>
@@ -6270,15 +6360,15 @@
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6301,13 +6391,13 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6358,7 +6448,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6370,21 +6460,21 @@
         <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>77</v>
@@ -6409,14 +6499,14 @@
         <v>93</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6485,7 +6575,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>105</v>
@@ -6588,7 +6678,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>107</v>
@@ -6693,7 +6783,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>113</v>
@@ -6736,7 +6826,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>77</v>
@@ -6778,7 +6868,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>86</v>
@@ -6793,15 +6883,15 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6827,10 +6917,10 @@
         <v>87</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6881,7 +6971,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -6893,21 +6983,21 @@
         <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>77</v>
@@ -6932,14 +7022,14 @@
         <v>93</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7008,7 +7098,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>105</v>
@@ -7111,7 +7201,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>107</v>
@@ -7216,7 +7306,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>113</v>
@@ -7259,7 +7349,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>77</v>
@@ -7301,7 +7391,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>86</v>
@@ -7316,15 +7406,15 @@
         <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7347,13 +7437,13 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7404,7 +7494,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -7416,21 +7506,21 @@
         <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
@@ -7455,14 +7545,14 @@
         <v>93</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -7531,7 +7621,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>105</v>
@@ -7634,7 +7724,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>107</v>
@@ -7737,13 +7827,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>77</v>
@@ -7768,14 +7858,14 @@
         <v>93</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -7844,10 +7934,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7947,10 +8037,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8052,10 +8142,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8095,7 +8185,7 @@
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" t="s" s="2">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="S61" t="s" s="2">
         <v>77</v>
@@ -8137,7 +8227,7 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>86</v>
@@ -8152,15 +8242,15 @@
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8186,10 +8276,10 @@
         <v>87</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8240,7 +8330,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -8252,21 +8342,21 @@
         <v>77</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>77</v>
@@ -8291,14 +8381,14 @@
         <v>93</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>77</v>
@@ -8367,10 +8457,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8470,10 +8560,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8575,10 +8665,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="B66" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8618,7 +8708,7 @@
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" t="s" s="2">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>77</v>
@@ -8660,7 +8750,7 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>86</v>
@@ -8675,15 +8765,15 @@
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8706,13 +8796,13 @@
         <v>77</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -8763,7 +8853,7 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -8775,15 +8865,15 @@
         <v>77</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>113</v>
@@ -8826,7 +8916,7 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>77</v>
@@ -8868,7 +8958,7 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>86</v>
@@ -8883,15 +8973,15 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -8914,13 +9004,13 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -8971,7 +9061,7 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -8983,21 +9073,21 @@
         <v>77</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>77</v>
@@ -9022,14 +9112,14 @@
         <v>93</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -9098,7 +9188,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>105</v>
@@ -9201,7 +9291,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>107</v>
@@ -9304,13 +9394,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="D73" t="s" s="2">
         <v>77</v>
@@ -9335,14 +9425,14 @@
         <v>93</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>77</v>
@@ -9411,10 +9501,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9514,10 +9604,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9619,10 +9709,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -9662,7 +9752,7 @@
       </c>
       <c r="Q76" s="2"/>
       <c r="R76" t="s" s="2">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="S76" t="s" s="2">
         <v>77</v>
@@ -9704,7 +9794,7 @@
         <v>77</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>86</v>
@@ -9719,15 +9809,15 @@
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -9750,13 +9840,13 @@
         <v>77</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -9807,7 +9897,7 @@
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -9819,21 +9909,21 @@
         <v>77</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>77</v>
@@ -9858,14 +9948,14 @@
         <v>93</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>77</v>
@@ -9934,10 +10024,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10037,10 +10127,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10142,10 +10232,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10185,7 +10275,7 @@
       </c>
       <c r="Q81" s="2"/>
       <c r="R81" t="s" s="2">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="S81" t="s" s="2">
         <v>77</v>
@@ -10227,7 +10317,7 @@
         <v>77</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>86</v>
@@ -10242,15 +10332,15 @@
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10273,13 +10363,13 @@
         <v>77</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -10330,7 +10420,7 @@
         <v>77</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -10342,21 +10432,21 @@
         <v>77</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>77</v>
@@ -10381,14 +10471,14 @@
         <v>93</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>77</v>
@@ -10457,10 +10547,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -10560,10 +10650,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -10665,10 +10755,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -10708,7 +10798,7 @@
       </c>
       <c r="Q86" s="2"/>
       <c r="R86" t="s" s="2">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>77</v>
@@ -10750,7 +10840,7 @@
         <v>77</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>86</v>
@@ -10765,15 +10855,15 @@
         <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -10796,13 +10886,13 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -10853,7 +10943,7 @@
         <v>77</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -10865,21 +10955,21 @@
         <v>77</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="D88" t="s" s="2">
         <v>77</v>
@@ -10904,14 +10994,14 @@
         <v>93</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>77</v>
@@ -10980,10 +11070,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11083,10 +11173,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -11188,10 +11278,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -11231,7 +11321,7 @@
       </c>
       <c r="Q91" s="2"/>
       <c r="R91" t="s" s="2">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="S91" t="s" s="2">
         <v>77</v>
@@ -11273,7 +11363,7 @@
         <v>77</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>86</v>
@@ -11288,15 +11378,15 @@
         <v>77</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -11319,13 +11409,13 @@
         <v>77</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -11376,7 +11466,7 @@
         <v>77</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -11388,21 +11478,21 @@
         <v>77</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="D93" t="s" s="2">
         <v>77</v>
@@ -11427,14 +11517,14 @@
         <v>93</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>77</v>
@@ -11503,10 +11593,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -11606,10 +11696,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -11711,10 +11801,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -11754,7 +11844,7 @@
       </c>
       <c r="Q96" s="2"/>
       <c r="R96" t="s" s="2">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="S96" t="s" s="2">
         <v>77</v>
@@ -11796,7 +11886,7 @@
         <v>77</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>86</v>
@@ -11811,15 +11901,15 @@
         <v>77</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -11845,10 +11935,10 @@
         <v>87</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -11899,7 +11989,7 @@
         <v>77</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
@@ -11911,21 +12001,21 @@
         <v>77</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="D98" t="s" s="2">
         <v>77</v>
@@ -11950,14 +12040,14 @@
         <v>93</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>77</v>
@@ -12026,10 +12116,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -12129,10 +12219,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -12232,13 +12322,13 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="D101" t="s" s="2">
         <v>77</v>
@@ -12263,14 +12353,14 @@
         <v>93</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>77</v>
@@ -12339,10 +12429,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -12442,10 +12532,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -12547,10 +12637,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -12590,7 +12680,7 @@
       </c>
       <c r="Q104" s="2"/>
       <c r="R104" t="s" s="2">
-        <v>302</v>
+        <v>329</v>
       </c>
       <c r="S104" t="s" s="2">
         <v>77</v>
@@ -12632,7 +12722,7 @@
         <v>77</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>86</v>
@@ -12647,15 +12737,15 @@
         <v>77</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -12678,13 +12768,13 @@
         <v>77</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -12735,7 +12825,7 @@
         <v>77</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>78</v>
@@ -12747,21 +12837,21 @@
         <v>77</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="D106" t="s" s="2">
         <v>77</v>
@@ -12786,14 +12876,14 @@
         <v>93</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>77</v>
@@ -12862,10 +12952,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -12965,10 +13055,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -13070,10 +13160,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -13113,7 +13203,7 @@
       </c>
       <c r="Q109" s="2"/>
       <c r="R109" t="s" s="2">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="S109" t="s" s="2">
         <v>77</v>
@@ -13155,7 +13245,7 @@
         <v>77</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>86</v>
@@ -13170,15 +13260,15 @@
         <v>77</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -13204,10 +13294,10 @@
         <v>87</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
@@ -13258,7 +13348,7 @@
         <v>77</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>78</v>
@@ -13270,18 +13360,18 @@
         <v>77</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -13321,7 +13411,7 @@
       </c>
       <c r="Q111" s="2"/>
       <c r="R111" t="s" s="2">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="S111" t="s" s="2">
         <v>77</v>
@@ -13363,7 +13453,7 @@
         <v>77</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>86</v>
@@ -13378,15 +13468,15 @@
         <v>77</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -13409,13 +13499,13 @@
         <v>77</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -13466,7 +13556,7 @@
         <v>77</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>78</v>
@@ -13478,21 +13568,21 @@
         <v>77</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="D113" t="s" s="2">
         <v>77</v>
@@ -13517,14 +13607,14 @@
         <v>93</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>77</v>
@@ -13593,10 +13683,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -13696,10 +13786,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -13799,13 +13889,13 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="D116" t="s" s="2">
         <v>77</v>
@@ -13830,14 +13920,14 @@
         <v>93</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>335</v>
+        <v>354</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
-        <v>337</v>
+        <v>356</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>77</v>
@@ -13906,10 +13996,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -14009,10 +14099,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>339</v>
+        <v>358</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -14114,10 +14204,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -14157,7 +14247,7 @@
       </c>
       <c r="Q119" s="2"/>
       <c r="R119" t="s" s="2">
-        <v>334</v>
+        <v>360</v>
       </c>
       <c r="S119" t="s" s="2">
         <v>77</v>
@@ -14199,7 +14289,7 @@
         <v>77</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>86</v>
@@ -14214,15 +14304,15 @@
         <v>77</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>341</v>
+        <v>361</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -14248,10 +14338,10 @@
         <v>87</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>335</v>
+        <v>354</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
@@ -14302,7 +14392,7 @@
         <v>77</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>78</v>
@@ -14314,21 +14404,21 @@
         <v>77</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>343</v>
+        <v>363</v>
       </c>
       <c r="D121" t="s" s="2">
         <v>77</v>
@@ -14353,14 +14443,14 @@
         <v>93</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>344</v>
+        <v>364</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>345</v>
+        <v>365</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" t="s" s="2">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>77</v>
@@ -14429,10 +14519,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -14532,10 +14622,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -14637,10 +14727,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>349</v>
+        <v>369</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -14680,7 +14770,7 @@
       </c>
       <c r="Q124" s="2"/>
       <c r="R124" t="s" s="2">
-        <v>343</v>
+        <v>370</v>
       </c>
       <c r="S124" t="s" s="2">
         <v>77</v>
@@ -14722,7 +14812,7 @@
         <v>77</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>86</v>
@@ -14737,15 +14827,15 @@
         <v>77</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>350</v>
+        <v>371</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -14771,10 +14861,10 @@
         <v>87</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>344</v>
+        <v>364</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>345</v>
+        <v>365</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
@@ -14825,7 +14915,7 @@
         <v>77</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>78</v>
@@ -14837,21 +14927,21 @@
         <v>77</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>351</v>
+        <v>372</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>352</v>
+        <v>373</v>
       </c>
       <c r="D126" t="s" s="2">
         <v>77</v>
@@ -14876,14 +14966,14 @@
         <v>93</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>353</v>
+        <v>374</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>354</v>
+        <v>375</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
-        <v>355</v>
+        <v>376</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>77</v>
@@ -14952,10 +15042,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>356</v>
+        <v>377</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -15055,10 +15145,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>357</v>
+        <v>378</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -15160,10 +15250,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>358</v>
+        <v>379</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -15203,7 +15293,7 @@
       </c>
       <c r="Q129" s="2"/>
       <c r="R129" t="s" s="2">
-        <v>352</v>
+        <v>380</v>
       </c>
       <c r="S129" t="s" s="2">
         <v>77</v>
@@ -15245,7 +15335,7 @@
         <v>77</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>86</v>
@@ -15260,15 +15350,15 @@
         <v>77</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>359</v>
+        <v>381</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -15294,10 +15384,10 @@
         <v>87</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>353</v>
+        <v>374</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>354</v>
+        <v>375</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" s="2"/>
@@ -15348,7 +15438,7 @@
         <v>77</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>78</v>
@@ -15360,21 +15450,21 @@
         <v>77</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>361</v>
+        <v>383</v>
       </c>
       <c r="D131" t="s" s="2">
         <v>77</v>
@@ -15399,14 +15489,14 @@
         <v>93</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>362</v>
+        <v>384</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>363</v>
+        <v>385</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>77</v>
@@ -15475,10 +15565,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -15578,10 +15668,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>366</v>
+        <v>388</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -15683,10 +15773,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -15726,7 +15816,7 @@
       </c>
       <c r="Q134" s="2"/>
       <c r="R134" t="s" s="2">
-        <v>361</v>
+        <v>390</v>
       </c>
       <c r="S134" t="s" s="2">
         <v>77</v>
@@ -15768,7 +15858,7 @@
         <v>77</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>86</v>
@@ -15783,15 +15873,15 @@
         <v>77</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>368</v>
+        <v>391</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -15817,10 +15907,10 @@
         <v>87</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>362</v>
+        <v>384</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>363</v>
+        <v>385</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
@@ -15871,7 +15961,7 @@
         <v>77</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>78</v>
@@ -15883,21 +15973,21 @@
         <v>77</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>370</v>
+        <v>393</v>
       </c>
       <c r="D136" t="s" s="2">
         <v>77</v>
@@ -15922,14 +16012,14 @@
         <v>93</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>372</v>
+        <v>395</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
-        <v>373</v>
+        <v>396</v>
       </c>
       <c r="P136" t="s" s="2">
         <v>77</v>
@@ -15998,10 +16088,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>374</v>
+        <v>397</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -16101,10 +16191,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>375</v>
+        <v>398</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -16206,10 +16296,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>376</v>
+        <v>399</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -16249,7 +16339,7 @@
       </c>
       <c r="Q139" s="2"/>
       <c r="R139" t="s" s="2">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="S139" t="s" s="2">
         <v>77</v>
@@ -16291,7 +16381,7 @@
         <v>77</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>86</v>
@@ -16306,15 +16396,15 @@
         <v>77</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>377</v>
+        <v>401</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -16337,13 +16427,13 @@
         <v>77</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>372</v>
+        <v>395</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" s="2"/>
@@ -16394,7 +16484,7 @@
         <v>77</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>78</v>
@@ -16406,18 +16496,18 @@
         <v>77</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -16457,7 +16547,7 @@
       </c>
       <c r="Q141" s="2"/>
       <c r="R141" t="s" s="2">
-        <v>379</v>
+        <v>403</v>
       </c>
       <c r="S141" t="s" s="2">
         <v>77</v>
@@ -16499,7 +16589,7 @@
         <v>77</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>86</v>
@@ -16514,15 +16604,15 @@
         <v>77</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>380</v>
+        <v>404</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -16545,13 +16635,13 @@
         <v>77</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
@@ -16602,7 +16692,7 @@
         <v>77</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>78</v>
@@ -16614,21 +16704,21 @@
         <v>77</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>381</v>
+        <v>405</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>382</v>
+        <v>406</v>
       </c>
       <c r="D143" t="s" s="2">
         <v>77</v>
@@ -16653,14 +16743,14 @@
         <v>93</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>384</v>
+        <v>408</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" t="s" s="2">
-        <v>385</v>
+        <v>409</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>77</v>
@@ -16729,10 +16819,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>386</v>
+        <v>410</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -16832,10 +16922,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -16935,13 +17025,13 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="D146" t="s" s="2">
         <v>77</v>
@@ -16966,14 +17056,14 @@
         <v>93</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>391</v>
+        <v>415</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" t="s" s="2">
-        <v>392</v>
+        <v>416</v>
       </c>
       <c r="P146" t="s" s="2">
         <v>77</v>
@@ -17042,10 +17132,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -17145,10 +17235,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>394</v>
+        <v>418</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -17250,10 +17340,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>395</v>
+        <v>419</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -17293,7 +17383,7 @@
       </c>
       <c r="Q149" s="2"/>
       <c r="R149" t="s" s="2">
-        <v>389</v>
+        <v>420</v>
       </c>
       <c r="S149" t="s" s="2">
         <v>77</v>
@@ -17335,7 +17425,7 @@
         <v>77</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>86</v>
@@ -17350,15 +17440,15 @@
         <v>77</v>
       </c>
       <c r="AK149" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>396</v>
+        <v>421</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -17381,13 +17471,13 @@
         <v>77</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>391</v>
+        <v>415</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" s="2"/>
@@ -17438,7 +17528,7 @@
         <v>77</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>78</v>
@@ -17450,21 +17540,21 @@
         <v>77</v>
       </c>
       <c r="AJ150" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK150" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>397</v>
+        <v>422</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>398</v>
+        <v>423</v>
       </c>
       <c r="D151" t="s" s="2">
         <v>77</v>
@@ -17489,14 +17579,14 @@
         <v>93</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>399</v>
+        <v>424</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" t="s" s="2">
-        <v>401</v>
+        <v>426</v>
       </c>
       <c r="P151" t="s" s="2">
         <v>77</v>
@@ -17565,10 +17655,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>402</v>
+        <v>427</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -17668,10 +17758,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>403</v>
+        <v>428</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -17773,10 +17863,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>404</v>
+        <v>429</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -17816,7 +17906,7 @@
       </c>
       <c r="Q154" s="2"/>
       <c r="R154" t="s" s="2">
-        <v>398</v>
+        <v>430</v>
       </c>
       <c r="S154" t="s" s="2">
         <v>77</v>
@@ -17858,7 +17948,7 @@
         <v>77</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>86</v>
@@ -17873,15 +17963,15 @@
         <v>77</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>405</v>
+        <v>431</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -17904,13 +17994,13 @@
         <v>77</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>399</v>
+        <v>424</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="N155" s="2"/>
       <c r="O155" s="2"/>
@@ -17961,7 +18051,7 @@
         <v>77</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>78</v>
@@ -17973,21 +18063,21 @@
         <v>77</v>
       </c>
       <c r="AJ155" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK155" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>406</v>
+        <v>432</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>407</v>
+        <v>433</v>
       </c>
       <c r="D156" t="s" s="2">
         <v>77</v>
@@ -18012,14 +18102,14 @@
         <v>93</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>408</v>
+        <v>434</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" t="s" s="2">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="P156" t="s" s="2">
         <v>77</v>
@@ -18088,10 +18178,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>411</v>
+        <v>437</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -18191,10 +18281,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>412</v>
+        <v>438</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -18296,10 +18386,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>413</v>
+        <v>439</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -18339,7 +18429,7 @@
       </c>
       <c r="Q159" s="2"/>
       <c r="R159" t="s" s="2">
-        <v>407</v>
+        <v>440</v>
       </c>
       <c r="S159" t="s" s="2">
         <v>77</v>
@@ -18381,7 +18471,7 @@
         <v>77</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>86</v>
@@ -18396,15 +18486,15 @@
         <v>77</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>414</v>
+        <v>441</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -18427,13 +18517,13 @@
         <v>77</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>408</v>
+        <v>434</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" s="2"/>
@@ -18484,7 +18574,7 @@
         <v>77</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>78</v>
@@ -18496,21 +18586,21 @@
         <v>77</v>
       </c>
       <c r="AJ160" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK160" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>415</v>
+        <v>442</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>416</v>
+        <v>443</v>
       </c>
       <c r="D161" t="s" s="2">
         <v>77</v>
@@ -18535,14 +18625,14 @@
         <v>93</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>417</v>
+        <v>444</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>418</v>
+        <v>445</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" t="s" s="2">
-        <v>419</v>
+        <v>446</v>
       </c>
       <c r="P161" t="s" s="2">
         <v>77</v>
@@ -18611,10 +18701,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>420</v>
+        <v>447</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -18714,10 +18804,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>421</v>
+        <v>448</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -18819,10 +18909,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>422</v>
+        <v>449</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -18862,7 +18952,7 @@
       </c>
       <c r="Q164" s="2"/>
       <c r="R164" t="s" s="2">
-        <v>416</v>
+        <v>450</v>
       </c>
       <c r="S164" t="s" s="2">
         <v>77</v>
@@ -18904,7 +18994,7 @@
         <v>77</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>86</v>
@@ -18919,15 +19009,15 @@
         <v>77</v>
       </c>
       <c r="AK164" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>423</v>
+        <v>451</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -18950,13 +19040,13 @@
         <v>77</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>417</v>
+        <v>444</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>418</v>
+        <v>445</v>
       </c>
       <c r="N165" s="2"/>
       <c r="O165" s="2"/>
@@ -19007,7 +19097,7 @@
         <v>77</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>78</v>
@@ -19019,18 +19109,18 @@
         <v>77</v>
       </c>
       <c r="AJ165" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK165" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>424</v>
+        <v>452</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -19070,7 +19160,7 @@
       </c>
       <c r="Q166" s="2"/>
       <c r="R166" t="s" s="2">
-        <v>425</v>
+        <v>453</v>
       </c>
       <c r="S166" t="s" s="2">
         <v>77</v>
@@ -19112,7 +19202,7 @@
         <v>77</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>86</v>
@@ -19127,15 +19217,15 @@
         <v>77</v>
       </c>
       <c r="AK166" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>426</v>
+        <v>454</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -19158,13 +19248,13 @@
         <v>77</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
@@ -19215,7 +19305,7 @@
         <v>77</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>78</v>
@@ -19227,15 +19317,15 @@
         <v>77</v>
       </c>
       <c r="AJ167" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK167" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>113</v>
@@ -19278,7 +19368,7 @@
       </c>
       <c r="Q168" s="2"/>
       <c r="R168" t="s" s="2">
-        <v>428</v>
+        <v>456</v>
       </c>
       <c r="S168" t="s" s="2">
         <v>77</v>
@@ -19320,7 +19410,7 @@
         <v>77</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>86</v>
@@ -19335,15 +19425,15 @@
         <v>77</v>
       </c>
       <c r="AK168" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>429</v>
+        <v>457</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -19366,13 +19456,13 @@
         <v>77</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="N169" s="2"/>
       <c r="O169" s="2"/>
@@ -19423,7 +19513,7 @@
         <v>77</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>78</v>
@@ -19435,21 +19525,21 @@
         <v>77</v>
       </c>
       <c r="AJ169" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK169" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>431</v>
+        <v>459</v>
       </c>
       <c r="D170" t="s" s="2">
         <v>77</v>
@@ -19474,14 +19564,14 @@
         <v>93</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>432</v>
+        <v>460</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>433</v>
+        <v>461</v>
       </c>
       <c r="N170" s="2"/>
       <c r="O170" t="s" s="2">
-        <v>434</v>
+        <v>462</v>
       </c>
       <c r="P170" t="s" s="2">
         <v>77</v>
@@ -19550,7 +19640,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>435</v>
+        <v>463</v>
       </c>
       <c r="B171" t="s" s="2">
         <v>105</v>
@@ -19653,7 +19743,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>436</v>
+        <v>464</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>107</v>
@@ -19756,13 +19846,13 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>437</v>
+        <v>465</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>438</v>
+        <v>466</v>
       </c>
       <c r="D173" t="s" s="2">
         <v>77</v>
@@ -19787,14 +19877,14 @@
         <v>93</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>439</v>
+        <v>467</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>440</v>
+        <v>468</v>
       </c>
       <c r="N173" s="2"/>
       <c r="O173" t="s" s="2">
-        <v>441</v>
+        <v>469</v>
       </c>
       <c r="P173" t="s" s="2">
         <v>77</v>
@@ -19863,10 +19953,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>442</v>
+        <v>470</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -19966,10 +20056,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -20071,10 +20161,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>444</v>
+        <v>472</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -20114,7 +20204,7 @@
       </c>
       <c r="Q176" s="2"/>
       <c r="R176" t="s" s="2">
-        <v>438</v>
+        <v>473</v>
       </c>
       <c r="S176" t="s" s="2">
         <v>77</v>
@@ -20156,7 +20246,7 @@
         <v>77</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>86</v>
@@ -20171,15 +20261,15 @@
         <v>77</v>
       </c>
       <c r="AK176" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>445</v>
+        <v>474</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -20202,13 +20292,13 @@
         <v>77</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>439</v>
+        <v>467</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>440</v>
+        <v>468</v>
       </c>
       <c r="N177" s="2"/>
       <c r="O177" s="2"/>
@@ -20259,7 +20349,7 @@
         <v>77</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>78</v>
@@ -20271,21 +20361,21 @@
         <v>77</v>
       </c>
       <c r="AJ177" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK177" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>446</v>
+        <v>475</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>447</v>
+        <v>476</v>
       </c>
       <c r="D178" t="s" s="2">
         <v>77</v>
@@ -20310,14 +20400,14 @@
         <v>93</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>448</v>
+        <v>477</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>449</v>
+        <v>478</v>
       </c>
       <c r="N178" s="2"/>
       <c r="O178" t="s" s="2">
-        <v>450</v>
+        <v>479</v>
       </c>
       <c r="P178" t="s" s="2">
         <v>77</v>
@@ -20386,10 +20476,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>451</v>
+        <v>480</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -20489,10 +20579,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>452</v>
+        <v>481</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -20594,10 +20684,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>453</v>
+        <v>482</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -20637,7 +20727,7 @@
       </c>
       <c r="Q181" s="2"/>
       <c r="R181" t="s" s="2">
-        <v>447</v>
+        <v>483</v>
       </c>
       <c r="S181" t="s" s="2">
         <v>77</v>
@@ -20679,7 +20769,7 @@
         <v>77</v>
       </c>
       <c r="AF181" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG181" t="s" s="2">
         <v>86</v>
@@ -20694,15 +20784,15 @@
         <v>77</v>
       </c>
       <c r="AK181" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>454</v>
+        <v>484</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -20725,13 +20815,13 @@
         <v>77</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>448</v>
+        <v>477</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>449</v>
+        <v>478</v>
       </c>
       <c r="N182" s="2"/>
       <c r="O182" s="2"/>
@@ -20782,7 +20872,7 @@
         <v>77</v>
       </c>
       <c r="AF182" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG182" t="s" s="2">
         <v>78</v>
@@ -20794,15 +20884,15 @@
         <v>77</v>
       </c>
       <c r="AJ182" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK182" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>455</v>
+        <v>485</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>113</v>
@@ -20845,7 +20935,7 @@
       </c>
       <c r="Q183" s="2"/>
       <c r="R183" t="s" s="2">
-        <v>456</v>
+        <v>486</v>
       </c>
       <c r="S183" t="s" s="2">
         <v>77</v>
@@ -20887,7 +20977,7 @@
         <v>77</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG183" t="s" s="2">
         <v>86</v>
@@ -20902,15 +20992,15 @@
         <v>77</v>
       </c>
       <c r="AK183" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>457</v>
+        <v>487</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -20933,13 +21023,13 @@
         <v>77</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="N184" s="2"/>
       <c r="O184" s="2"/>
@@ -20990,7 +21080,7 @@
         <v>77</v>
       </c>
       <c r="AF184" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG184" t="s" s="2">
         <v>78</v>
@@ -21002,18 +21092,18 @@
         <v>77</v>
       </c>
       <c r="AJ184" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK184" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -21095,7 +21185,7 @@
         <v>77</v>
       </c>
       <c r="AF185" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG185" t="s" s="2">
         <v>86</v>
@@ -21110,15 +21200,15 @@
         <v>77</v>
       </c>
       <c r="AK185" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -21141,13 +21231,13 @@
         <v>77</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="N186" s="2"/>
       <c r="O186" s="2"/>
@@ -21198,7 +21288,7 @@
         <v>77</v>
       </c>
       <c r="AF186" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG186" t="s" s="2">
         <v>78</v>
@@ -21210,10 +21300,10 @@
         <v>77</v>
       </c>
       <c r="AJ186" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK186" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-SubstanceSourceMaterial.xlsx
+++ b/StructureDefinition-ext-R5-SubstanceSourceMaterial.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>

--- a/StructureDefinition-ext-R5-SubstanceSourceMaterial.xlsx
+++ b/StructureDefinition-ext-R5-SubstanceSourceMaterial.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
